--- a/Documentacion/NormalizacionBasededatos.xlsx
+++ b/Documentacion/NormalizacionBasededatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85648aa274ae0e38/Desktop/POV-Restaurante/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{27F5A4FF-8F73-41E2-9AA9-8CA7FFB62A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{573D2D99-0864-4653-B75B-953B6CA9C696}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{27F5A4FF-8F73-41E2-9AA9-8CA7FFB62A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E322150F-3D25-4B23-B874-CFA90BDF2438}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>Factura</t>
   </si>
@@ -171,27 +171,9 @@
     <t>Salchipapa de chorizo</t>
   </si>
   <si>
-    <t>Alitas 6 und.</t>
-  </si>
-  <si>
-    <t>Alitas 12 und.</t>
-  </si>
-  <si>
-    <t>Alitas 18 und.</t>
-  </si>
-  <si>
     <t>Salchipapa con Huevo</t>
   </si>
   <si>
-    <t>1 Tipo de alita con papas nativas</t>
-  </si>
-  <si>
-    <t>2 Tipo de alita con papas nativas</t>
-  </si>
-  <si>
-    <t>3 Tipo de alita con papas nativas</t>
-  </si>
-  <si>
     <t>Salchipapa Clasica</t>
   </si>
   <si>
@@ -328,16 +310,59 @@
   </si>
   <si>
     <t>Inventario Fijo</t>
+  </si>
+  <si>
+    <t>Dispnible</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>6u A. Clasiscas</t>
+  </si>
+  <si>
+    <t>6u A.BBQ</t>
+  </si>
+  <si>
+    <t>6u A. Picantes</t>
+  </si>
+  <si>
+    <t>6u A. Orientales</t>
+  </si>
+  <si>
+    <t>6u A. Acevichadas</t>
+  </si>
+  <si>
+    <t>6u A. Peruchas</t>
+  </si>
+  <si>
+    <t>6 und. Alitas Clasicas</t>
+  </si>
+  <si>
+    <t>6 und. Alitas BBQ</t>
+  </si>
+  <si>
+    <t>6 und. Alitas Picantes</t>
+  </si>
+  <si>
+    <t>6 und. Alitas Orientales</t>
+  </si>
+  <si>
+    <t>6 und. Alitas Peruchas</t>
+  </si>
+  <si>
+    <t>6 und. Alitas Acevichadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +382,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,18 +429,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -483,11 +509,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -496,10 +534,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,8 +555,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C543DA0A-4D06-424E-B486-8B8799A20429}">
   <dimension ref="B4:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,30 +860,30 @@
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="L4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -860,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
@@ -869,35 +911,35 @@
         <v>95</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="17" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="1">
@@ -906,9 +948,10 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
+      <c r="J6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="1">
         <v>1</v>
       </c>
@@ -922,23 +965,23 @@
         <v>20</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="1">
@@ -947,8 +990,8 @@
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
+      <c r="J7" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -963,24 +1006,24 @@
         <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="18">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
+      <c r="F8" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -988,24 +1031,24 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
+      <c r="J8" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="18">
         <v>16</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="1">
@@ -1014,25 +1057,25 @@
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
+      <c r="J9" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="19">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>51</v>
+      <c r="F10" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1040,32 +1083,32 @@
       <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
+      <c r="J10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="17">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="9">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>52</v>
+      <c r="E11" s="19">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="H11" s="1">
         <v>6</v>
@@ -1073,40 +1116,40 @@
       <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
+      <c r="J11" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="17">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="17">
         <v>3</v>
       </c>
-      <c r="E12" s="9">
-        <v>25</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>53</v>
+      <c r="E12" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="1">
         <v>7</v>
@@ -1114,8 +1157,8 @@
       <c r="I12" s="1">
         <v>7</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
+      <c r="J12" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1134,20 +1177,20 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="17">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="9">
-        <v>37</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>54</v>
+      <c r="E13" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="H13" s="1">
         <v>8</v>
@@ -1155,8 +1198,8 @@
       <c r="I13" s="1">
         <v>8</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
+      <c r="J13" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L13" s="1">
         <v>2</v>
@@ -1175,20 +1218,20 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="17">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9">
-        <v>13</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>56</v>
+      <c r="C14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="17">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H14" s="1">
         <v>9</v>
@@ -1196,8 +1239,8 @@
       <c r="I14" s="1">
         <v>9</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
+      <c r="J14" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L14" s="1">
         <v>3</v>
@@ -1216,20 +1259,20 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="17">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>57</v>
+      <c r="C15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="H15" s="1">
         <v>10</v>
@@ -1237,8 +1280,8 @@
       <c r="I15" s="1">
         <v>10</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
+      <c r="J15" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
@@ -1257,20 +1300,20 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="17">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>58</v>
+      <c r="C16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="H16" s="1">
         <v>11</v>
@@ -1278,8 +1321,8 @@
       <c r="I16" s="1">
         <v>15</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
+      <c r="J16" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -1298,20 +1341,20 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="17">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>59</v>
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>13</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="H17" s="1">
         <v>12</v>
@@ -1319,25 +1362,25 @@
       <c r="I17" s="1">
         <v>16</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
+      <c r="J17" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="17">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="10">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11">
-        <v>5</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>29</v>
+      <c r="C18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="17">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
@@ -1345,31 +1388,31 @@
       <c r="I18" s="1">
         <v>20</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="18" t="s">
+      <c r="J18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="17">
         <v>14</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="10">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="C19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="17">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>30</v>
+      <c r="E19" s="18">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="H19" s="1">
         <v>14</v>
@@ -1377,37 +1420,37 @@
       <c r="I19" s="1">
         <v>21</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
+      <c r="J19" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="17">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="8">
-        <v>6</v>
-      </c>
-      <c r="E20" s="9">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>28</v>
+      <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5</v>
+      </c>
+      <c r="E20" s="18">
+        <v>8</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="H20" s="1">
         <v>15</v>
@@ -1415,8 +1458,8 @@
       <c r="I20" s="1">
         <v>22</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
+      <c r="J20" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
@@ -1432,20 +1475,20 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="B21" s="17">
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="9">
-        <v>15</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>31</v>
+      <c r="E21" s="18">
+        <v>5</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H21" s="1">
         <v>16</v>
@@ -1453,8 +1496,8 @@
       <c r="I21" s="1">
         <v>23</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
+      <c r="J21" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="L21" s="1">
         <v>2</v>
@@ -1470,107 +1513,107 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+      <c r="B22" s="17">
         <v>17</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="10">
-        <v>7</v>
-      </c>
-      <c r="E22" s="11">
-        <v>7</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>60</v>
+      <c r="C22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="17">
+        <v>6</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="17">
         <v>18</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="10">
-        <v>7</v>
-      </c>
-      <c r="E23" s="11">
-        <v>7</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="L23" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="C23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="17">
+        <v>6</v>
+      </c>
+      <c r="E23" s="18">
+        <v>15</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="B24" s="17">
         <v>19</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="10">
-        <v>7</v>
-      </c>
-      <c r="E24" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>61</v>
+      <c r="C24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="17">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18">
+        <v>15</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="17">
         <v>20</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="8">
-        <v>8</v>
-      </c>
-      <c r="E25" s="9">
-        <v>12</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>35</v>
+      <c r="C25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17">
+        <v>7</v>
+      </c>
+      <c r="E25" s="18">
+        <v>7</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -1585,33 +1628,33 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="B26" s="17">
         <v>21</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8">
-        <v>8</v>
-      </c>
-      <c r="E26" s="9">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>36</v>
+      <c r="C26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="17">
+        <v>7</v>
+      </c>
+      <c r="E26" s="18">
+        <v>7</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -1626,33 +1669,33 @@
         <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="17">
         <v>22</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="8">
-        <v>8</v>
-      </c>
-      <c r="E27" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>37</v>
+      <c r="C27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="17">
+        <v>7</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -1665,20 +1708,20 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="17">
         <v>23</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="17">
         <v>8</v>
       </c>
-      <c r="E28" s="9">
-        <v>13</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>38</v>
+      <c r="E28" s="18">
+        <v>12</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
@@ -1689,26 +1732,26 @@
       <c r="J28" s="1">
         <v>24</v>
       </c>
-      <c r="L28" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" s="17"/>
+      <c r="L28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+      <c r="B29" s="17">
         <v>24</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="10">
-        <v>9</v>
-      </c>
-      <c r="E29" s="11">
-        <v>40</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>62</v>
+      <c r="C29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="17">
+        <v>8</v>
+      </c>
+      <c r="E29" s="18">
+        <v>14</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -1727,20 +1770,20 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+      <c r="B30" s="17">
         <v>25</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="10">
-        <v>9</v>
-      </c>
-      <c r="E30" s="11">
-        <v>45</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>63</v>
+      <c r="C30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="17">
+        <v>8</v>
+      </c>
+      <c r="E30" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H30" s="1">
         <v>6</v>
@@ -1759,20 +1802,20 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+      <c r="B31" s="17">
         <v>26</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="10">
-        <v>9</v>
-      </c>
-      <c r="E31" s="11">
-        <v>43</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>64</v>
+      <c r="C31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="17">
+        <v>8</v>
+      </c>
+      <c r="E31" s="18">
+        <v>13</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="H31" s="1">
         <v>7</v>
@@ -1791,20 +1834,20 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="B32" s="17">
         <v>27</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="10">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>65</v>
+      <c r="C32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="17">
+        <v>9</v>
+      </c>
+      <c r="E32" s="18">
+        <v>40</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="H32" s="1">
         <v>8</v>
@@ -1823,20 +1866,20 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="B33" s="17">
         <v>28</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="10">
-        <v>10</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>66</v>
+      <c r="C33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="17">
+        <v>9</v>
+      </c>
+      <c r="E33" s="18">
+        <v>45</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="H33" s="1">
         <v>9</v>
@@ -1855,20 +1898,20 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
+      <c r="B34" s="17">
         <v>29</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="10">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>67</v>
+      <c r="C34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="17">
+        <v>9</v>
+      </c>
+      <c r="E34" s="18">
+        <v>43</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="H34" s="1">
         <v>10</v>
@@ -1887,6 +1930,21 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="17">
+        <v>30</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="17">
+        <v>10</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" s="1">
         <v>11</v>
       </c>
@@ -1904,6 +1962,21 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
+        <v>31</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="17">
+        <v>10</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" s="1">
         <v>12</v>
       </c>
@@ -1921,6 +1994,21 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
+        <v>32</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="17">
+        <v>10</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="H37" s="1">
         <v>13</v>
       </c>
